--- a/AdultIncome/Performance_metrics/model_perf_metrics_merged_only_with_cfs_exp_5400samp_2cfs.xlsx
+++ b/AdultIncome/Performance_metrics/model_perf_metrics_merged_only_with_cfs_exp_5400samp_2cfs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>F1_std(%)</t>
+          <t>F1 (%)_std</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AUC_std(%)</t>
+          <t>AUC (%)_std</t>
         </is>
       </c>
     </row>
@@ -502,10 +502,10 @@
         <v>27133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6524703911951191</v>
+        <v>0.6540397986094461</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7615509167304597</v>
+        <v>0.7623241842787235</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -554,26 +554,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:1</t>
+          <t>LR_sample:10_cf:2_iteration:1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5400</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>10800</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3271441202475685</v>
+        <v>0.3832373135506274</v>
       </c>
       <c r="H4" t="n">
-        <v>0.594235336134502</v>
+        <v>0.5586999330397295</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -588,26 +588,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:2</t>
+          <t>LR_sample:10_cf:2_iteration:2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>5400</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>10800</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3039304473827205</v>
+        <v>0.4452079307136211</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5864323777377642</v>
+        <v>0.6118499382855782</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -622,26 +622,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:3</t>
+          <t>LR_sample:10_cf:2_iteration:3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5400</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>10800</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3135988518119843</v>
+        <v>0.3241919686581782</v>
       </c>
       <c r="H6" t="n">
-        <v>0.589664450643439</v>
+        <v>0.5869793536165175</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -656,26 +656,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:4</t>
+          <t>LR_sample:10_cf:3_iteration:1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5400</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>10800</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3077759651984774</v>
+        <v>0.4013819095477387</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5880598674903549</v>
+        <v>0.5977639672560841</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -690,26 +690,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:5</t>
+          <t>LR_sample:10_cf:3_iteration:2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>5400</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>10800</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3062148940025367</v>
+        <v>0.3341681574239714</v>
       </c>
       <c r="H8" t="n">
-        <v>0.587394160298403</v>
+        <v>0.4969736200103673</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -724,26 +724,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:6</t>
+          <t>LR_sample:10_cf:3_iteration:3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>5400</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>10800</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3000728332119447</v>
+        <v>0.2781715095676825</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5852783810640086</v>
+        <v>0.4825478882144849</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -758,26 +758,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:7</t>
+          <t>LR_sample:12_cf:2_iteration:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>5400</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>10800</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3112152902993148</v>
+        <v>0.3898060586632473</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5890658264797671</v>
+        <v>0.615835817541365</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -792,26 +792,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:8</t>
+          <t>LR_sample:12_cf:2_iteration:2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5400</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>10800</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3025454545454546</v>
+        <v>0.3211754537597234</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5861684567204395</v>
+        <v>0.5900463173242473</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -826,26 +826,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:9</t>
+          <t>LR_sample:12_cf:2_iteration:3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5400</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>10800</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3175796634443251</v>
+        <v>0.4289956803455723</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5911476018124284</v>
+        <v>0.5908388987613413</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -860,26 +860,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:10</t>
+          <t>LR_sample:12_cf:3_iteration:1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>5400</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>10800</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3168034249018908</v>
+        <v>0.1945432977461447</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5905600749509827</v>
+        <v>0.552091620505654</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -894,26 +894,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:11</t>
+          <t>LR_sample:12_cf:3_iteration:2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5400</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>10800</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2923161562442692</v>
+        <v>0.3738207547169811</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5827157144510281</v>
+        <v>0.5880417157083949</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -928,643 +928,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LR_sample:5400_cf:2_iteration:12</t>
+          <t>LR_sample:12_cf:3_iteration:3</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
         <v>12</v>
       </c>
-      <c r="D15" t="n">
-        <v>5400</v>
-      </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>10800</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3088314972006502</v>
+        <v>0.4159088153267855</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5882125290506258</v>
+        <v>0.6158559416314638</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:13</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.298082191780822</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5847193094531828</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:14</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.320255636428191</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5916395903949739</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:15</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.3167534566349434</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5910326432546325</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:16</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3095281142650515</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5885812360987058</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:17</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.3203292770221904</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5922583468325959</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:18</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2919038002570222</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.5826403084460782</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:19</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.309823677581864</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.5883284123836073</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:20</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.3169987434930892</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.591107124484397</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:21</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3194717115830805</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.5917066734232543</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:22</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3220760753643797</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.5924891887233732</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:23</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.2959313993796753</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.5837584516677298</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:24</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.3188147090324884</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.5914473762818571</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:25</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.3071907263176961</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.5877647168968538</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:26</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.3151079136690648</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.5904754211941777</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:27</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.3174489430311716</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.5911466770372429</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:28</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.3154868846568451</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.5905508271991277</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:29</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.3051523947750363</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.5870594571520558</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>LR_sample:5400_cf:2_iteration:30</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5400</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.312724658519051</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.5894400821789603</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
